--- a/django structure.xlsx
+++ b/django structure.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>forms</t>
   </si>
@@ -382,12 +382,18 @@
       <t> будет включать в себя на своей веб-странице, когда оно будет служить вам. Он отличается каждый раз, когда он обслуживает любую страницу.</t>
     </r>
   </si>
+  <si>
+    <t>Задача по загрузке шаблона, наполнению контекста и возврату HttpResponse</t>
+  </si>
+  <si>
+    <t>Поэтому, Django предоставляет в использование функцию render()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +458,15 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -678,10 +693,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -724,8 +740,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1237,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,6 +1736,9 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="9"/>
+      <c r="P34" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
@@ -1733,6 +1754,9 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="9"/>
+      <c r="P35" s="32" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
@@ -1780,6 +1804,10 @@
       <c r="N38" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P34" r:id="rId1" location="django.http.HttpResponse" display="https://rtfm.co.ua/goto/https:/docs.djangoproject.com/en/1.8/ref/request-response/ - django.http.HttpResponse"/>
+    <hyperlink ref="P35" r:id="rId2" location="django.shortcuts.render" display="https://rtfm.co.ua/goto/https:/docs.djangoproject.com/en/1.8/topics/http/shortcuts/ - django.shortcuts.render"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
